--- a/Сопло/result.xlsx
+++ b/Сопло/result.xlsx
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.756437055766582</v>
+        <v>0.4739717662334443</v>
       </c>
       <c r="C19">
         <v>170</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.79281934350729</v>
+        <v>0.4572074234485627</v>
       </c>
       <c r="C20">
         <v>180</v>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.826584868133068</v>
+        <v>0.4421682775020599</v>
       </c>
       <c r="C21">
         <v>190</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.858101092278957</v>
+        <v>0.4285680830478668</v>
       </c>
       <c r="C22">
         <v>200</v>
